--- a/data/ModelH_Tocilizumab_Params.xlsx
+++ b/data/ModelH_Tocilizumab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TMDD_EndogenousLigand/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C69D5A0-720D-8440-9A1E-CEDB7C2CA649}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A290D6-683C-884A-8F72-C3F8794413AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1494,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
